--- a/src/main/resources/IN/teste.xlsx
+++ b/src/main/resources/IN/teste.xlsx
@@ -234,7 +234,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,7 +528,53 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
